--- a/data for APM466 AS1.xlsx
+++ b/data for APM466 AS1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2B4DBB-3777-F543-B914-6D0764DC3A43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB68BE5B-08C3-9144-AEEF-DAFA2E9990D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="460" windowWidth="21540" windowHeight="14160" xr2:uid="{664E94DE-ED58-1841-BC56-705B86285416}"/>
+    <workbookView xWindow="3900" yWindow="460" windowWidth="21540" windowHeight="14160" firstSheet="1" activeTab="11" xr2:uid="{664E94DE-ED58-1841-BC56-705B86285416}"/>
   </bookViews>
   <sheets>
     <sheet name="selected 10 bonds" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="62">
   <si>
     <t>Bond</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -648,14 +648,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1507C6-C59A-5A46-9784-02332034A71C}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView zoomScale="69" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="13" max="13" width="13.83203125" customWidth="1"/>
     <col min="14" max="14" width="11.33203125" customWidth="1"/>
     <col min="15" max="15" width="12.33203125" customWidth="1"/>
@@ -1178,6 +1179,53 @@
         <v>45536</v>
       </c>
     </row>
+    <row r="12" spans="1:15">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12">
+        <v>98.24</v>
+      </c>
+      <c r="C12">
+        <v>98.43</v>
+      </c>
+      <c r="D12">
+        <v>98.58</v>
+      </c>
+      <c r="E12">
+        <v>98.48</v>
+      </c>
+      <c r="F12">
+        <v>98.48</v>
+      </c>
+      <c r="G12">
+        <v>98.3</v>
+      </c>
+      <c r="H12">
+        <v>98.25</v>
+      </c>
+      <c r="I12">
+        <v>98.24</v>
+      </c>
+      <c r="J12">
+        <v>98.34</v>
+      </c>
+      <c r="K12">
+        <v>98.47</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="M12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" s="2">
+        <v>43749</v>
+      </c>
+      <c r="O12" s="2">
+        <v>45717</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1186,10 +1234,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59BA62ED-5F6A-9A4E-A584-5B0A983AF38E}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G12" sqref="G12:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1418,6 +1466,26 @@
         <v>45536</v>
       </c>
     </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12">
+        <v>98.24</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="2">
+        <v>43749</v>
+      </c>
+      <c r="F12" s="2">
+        <v>45717</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1426,9 +1494,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F2B4C9-2162-254F-BE5D-807BA06D05EB}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12:L12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -1656,6 +1726,26 @@
         <v>45536</v>
       </c>
     </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12">
+        <v>98.34</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="2">
+        <v>43749</v>
+      </c>
+      <c r="F12" s="2">
+        <v>45717</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1664,19 +1754,20 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981F5085-5591-6E43-A882-5D5E6CE164ED}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="4" max="4" width="14.1640625" customWidth="1"/>
     <col min="6" max="6" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="2">
         <v>43845</v>
       </c>
@@ -1696,7 +1787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1715,12 +1806,8 @@
       <c r="F2" s="2">
         <v>43891</v>
       </c>
-      <c r="G2">
-        <f>YIELD(A1,F2,C2,100.357534,100,2)</f>
-        <v>-1.2863112691934495E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1740,7 +1827,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1760,7 +1847,7 @@
         <v>44256</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1780,7 +1867,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1800,7 +1887,7 @@
         <v>44621</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1820,7 +1907,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -1840,7 +1927,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -1860,7 +1947,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -1880,7 +1967,7 @@
         <v>45352</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -1898,6 +1985,26 @@
       </c>
       <c r="F11" s="2">
         <v>45536</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12">
+        <v>98.47</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="2">
+        <v>43749</v>
+      </c>
+      <c r="F12" s="2">
+        <v>45717</v>
       </c>
     </row>
   </sheetData>
@@ -1911,7 +2018,7 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="O24" sqref="A24:O24"/>
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3521,10 +3628,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFFF606B-C045-E744-A7D0-E98C58AAE0CF}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G12" sqref="G12:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3753,6 +3860,26 @@
         <v>45536</v>
       </c>
     </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12">
+        <v>98.24</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="2">
+        <v>43749</v>
+      </c>
+      <c r="F12" s="2">
+        <v>45717</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3761,10 +3888,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928BA903-0609-5348-B70D-AD1A74324CAB}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G12" sqref="G12:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3993,6 +4120,26 @@
         <v>45536</v>
       </c>
     </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12">
+        <v>98.43</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="2">
+        <v>43749</v>
+      </c>
+      <c r="F12" s="2">
+        <v>45717</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4001,10 +4148,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7288F093-5B32-D442-9D45-EE6D1EC52475}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G12" sqref="G12:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4233,6 +4380,26 @@
         <v>45536</v>
       </c>
     </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12">
+        <v>98.58</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="2">
+        <v>43749</v>
+      </c>
+      <c r="F12" s="2">
+        <v>45717</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4241,10 +4408,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F25928A-4AD7-9248-A76E-3611F5D37AC5}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G12" sqref="G12:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4473,6 +4640,26 @@
         <v>45536</v>
       </c>
     </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12">
+        <v>98.48</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="2">
+        <v>43749</v>
+      </c>
+      <c r="F12" s="2">
+        <v>45717</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4481,10 +4668,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7592B7B9-0121-8E45-B28E-B8F63C98B809}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="G12" sqref="G12:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4713,6 +4900,26 @@
         <v>45536</v>
       </c>
     </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12">
+        <v>98.48</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="2">
+        <v>43749</v>
+      </c>
+      <c r="F12" s="2">
+        <v>45717</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4721,10 +4928,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB25B8B-BD36-904E-A815-2409B9AF5E90}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="G12" sqref="G12:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4953,6 +5160,26 @@
         <v>45536</v>
       </c>
     </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12">
+        <v>98.3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="2">
+        <v>43749</v>
+      </c>
+      <c r="F12" s="2">
+        <v>45717</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4961,10 +5188,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701F5EA9-44E4-8A4B-9BA7-EA011A06C547}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G12" sqref="G12:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5193,6 +5420,26 @@
         <v>45536</v>
       </c>
     </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12">
+        <v>98.25</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="2">
+        <v>43749</v>
+      </c>
+      <c r="F12" s="2">
+        <v>45717</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
